--- a/src/test/resources/dataTest/Login.xlsx
+++ b/src/test/resources/dataTest/Login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NguyenVanPhuc\src\test\resources\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEC9E70-F43D-42D7-A517-49354166D5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F5D04C-BB51-422E-B932-61108E1B9132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CD1A626E-987F-458F-BC2F-30662875B4EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>email</t>
   </si>
@@ -44,37 +44,17 @@
     <t>password</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>admin@example.com</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin123@example.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,16 +77,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C1A16A-861D-4422-A50D-067B079AE28B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,47 +408,47 @@
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>123456</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{5199BF94-94B4-4DFB-AE11-9DFE59EF9930}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{AF1E35FF-3359-42AA-9515-584D78BB0210}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/dataTest/Login.xlsx
+++ b/src/test/resources/dataTest/Login.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NguyenVanPhuc\src\test\resources\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F5D04C-BB51-422E-B932-61108E1B9132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7AF62D-2765-4B30-85BC-69A0578FD484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CD1A626E-987F-458F-BC2F-30662875B4EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CD1A626E-987F-458F-BC2F-30662875B4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="DataLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>email</t>
   </si>
@@ -45,6 +46,12 @@
   </si>
   <si>
     <t>admin@example.com</t>
+  </si>
+  <si>
+    <t>admin1@example.com</t>
+  </si>
+  <si>
+    <t>admin11@example.com</t>
   </si>
 </sst>
 </file>
@@ -80,9 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C1A16A-861D-4422-A50D-067B079AE28B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +423,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -425,7 +431,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -433,7 +439,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -441,7 +447,66 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB280D7C-958A-4C44-8716-24224DEC03C3}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">

--- a/src/test/resources/dataTest/Login.xlsx
+++ b/src/test/resources/dataTest/Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NguyenVanPhuc\src\test\resources\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7AF62D-2765-4B30-85BC-69A0578FD484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5509F9AE-93F3-4124-BD6C-EEB9D2580DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CD1A626E-987F-458F-BC2F-30662875B4EA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>email</t>
   </si>
@@ -48,10 +48,7 @@
     <t>admin@example.com</t>
   </si>
   <si>
-    <t>admin1@example.com</t>
-  </si>
-  <si>
-    <t>admin11@example.com</t>
+    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -87,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB280D7C-958A-4C44-8716-24224DEC03C3}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,32 +483,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>123456</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/dataTest/Login.xlsx
+++ b/src/test/resources/dataTest/Login.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NguyenVanPhuc\src\test\resources\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5509F9AE-93F3-4124-BD6C-EEB9D2580DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8AE65A-728F-47BC-BCC5-834DCFFC198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CD1A626E-987F-458F-BC2F-30662875B4EA}"/>
+    <workbookView xWindow="5220" yWindow="7860" windowWidth="12705" windowHeight="11385" activeTab="3" xr2:uid="{CD1A626E-987F-458F-BC2F-30662875B4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="DataLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateUser" sheetId="3" r:id="rId3"/>
+    <sheet name="NewUser" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>email</t>
   </si>
@@ -49,16 +51,57 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>anhtester@email.com</t>
+  </si>
+  <si>
+    <t>AnhTester@2023#</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Phuc</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>phuctho1996@gmail.com</t>
+  </si>
+  <si>
+    <t>0965339606</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,14 +124,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB280D7C-958A-4C44-8716-24224DEC03C3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,4 +544,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DD5D0F-7710-4A98-8C6A-DEE20A82E7DA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01065CD0-13CF-4283-A4D7-65ED4527DA9F}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="24.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5268C1ED-FFE8-4D2A-BA2D-3523BA0B0A14}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>